--- a/database.xlsx
+++ b/database.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\supun\Desktop\H&amp;E\Apps\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://calzedonia-my.sharepoint.com/personal/shashini_apsara_omegaline_org/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1FFAFE-FBFF-4616-B43E-C4DE3267DD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8474510F-B54A-4F93-AA99-1E401EEB1433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="115">
   <si>
     <t>Name</t>
   </si>
@@ -33,22 +33,343 @@
     <t>EmpNo</t>
   </si>
   <si>
-    <t>Maaya</t>
-  </si>
-  <si>
-    <t>San</t>
-  </si>
-  <si>
-    <t>Andrew</t>
-  </si>
-  <si>
-    <t>Malan</t>
-  </si>
-  <si>
-    <t>Keron</t>
-  </si>
-  <si>
-    <t>Laila</t>
+    <t>H.P.M.Chamila Trishan Herath</t>
+  </si>
+  <si>
+    <t>K.G.Supun Bhawantha</t>
+  </si>
+  <si>
+    <t>H.P.M.Darshani Bandara</t>
+  </si>
+  <si>
+    <t>W.Thilini Maduwanthi</t>
+  </si>
+  <si>
+    <t>J.H.D. Shalika Dulanjalee</t>
+  </si>
+  <si>
+    <t>H.A. Iresha Dulanjala</t>
+  </si>
+  <si>
+    <t>N.A.M.Nadeesha Madushani</t>
+  </si>
+  <si>
+    <t>W.A.Iranga Gayanath</t>
+  </si>
+  <si>
+    <t>R.A.D.Dilup Sheran Ranasinghe</t>
+  </si>
+  <si>
+    <t>I.Niroshan Madusanka</t>
+  </si>
+  <si>
+    <t>W.A.Pradeep Suranga</t>
+  </si>
+  <si>
+    <t>R.M.Kasun Dhanushka</t>
+  </si>
+  <si>
+    <t>S.M.Thanuja Sandamali</t>
+  </si>
+  <si>
+    <t>N.H.Anuradha Dilshani</t>
+  </si>
+  <si>
+    <t>Asha Sewwandi</t>
+  </si>
+  <si>
+    <t>K.Shashini Apsara Nethmini</t>
+  </si>
+  <si>
+    <t>M.A.M.Devindi Elisabath</t>
+  </si>
+  <si>
+    <t>T.A. Sachini hansani</t>
+  </si>
+  <si>
+    <t>A.G. Chathura priyan</t>
+  </si>
+  <si>
+    <t>H.P.Shehara Dilushini</t>
+  </si>
+  <si>
+    <t>M.P.Hasini Upeksha</t>
+  </si>
+  <si>
+    <t>Dinushi Vidusari</t>
+  </si>
+  <si>
+    <t>A.A.Ayodya Thathsarani</t>
+  </si>
+  <si>
+    <t>H.M.Dushmila Sandu</t>
+  </si>
+  <si>
+    <t>M.D.Maleesha Maduwanthi</t>
+  </si>
+  <si>
+    <t>Shalini Nawoda Dewmini</t>
+  </si>
+  <si>
+    <t>W.Surani Nimanthi Fernando</t>
+  </si>
+  <si>
+    <t>S.D.Pradeepa Sudarshini</t>
+  </si>
+  <si>
+    <t>R.D.Nipuni Sandeepani</t>
+  </si>
+  <si>
+    <t>W.A.Sanjeewani Kumari</t>
+  </si>
+  <si>
+    <t>W.Dilshika Sandaruwani Fernando</t>
+  </si>
+  <si>
+    <t>Tashini Ishara</t>
+  </si>
+  <si>
+    <t>J.Nethmi Divyanjali</t>
+  </si>
+  <si>
+    <t>Nethmi Rangani</t>
+  </si>
+  <si>
+    <t>K.M.Maneesha Ravihari</t>
+  </si>
+  <si>
+    <t>W.P.Tharushi Deshani</t>
+  </si>
+  <si>
+    <t>W.A.Sanduni Anuththara</t>
+  </si>
+  <si>
+    <t>I.B.Dilki Sakunthala Bandara</t>
+  </si>
+  <si>
+    <t>H.P.Berni Manoshini Pathirana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kokila </t>
+  </si>
+  <si>
+    <t>Subashini Chandrakumari</t>
+  </si>
+  <si>
+    <t>O.M Vindya Arunodhi</t>
+  </si>
+  <si>
+    <t>Lakshika Madhuwanthi</t>
+  </si>
+  <si>
+    <t>W.U.L.Ishara Dilshani</t>
+  </si>
+  <si>
+    <t>Paboda Udayanthi</t>
+  </si>
+  <si>
+    <t>Sanduni Himasha</t>
+  </si>
+  <si>
+    <t>H.P.Tharika Malshani</t>
+  </si>
+  <si>
+    <t>TC 9048</t>
+  </si>
+  <si>
+    <t>Koshila</t>
+  </si>
+  <si>
+    <t>Kavindya</t>
+  </si>
+  <si>
+    <t>Ashani</t>
+  </si>
+  <si>
+    <t>Senuri</t>
+  </si>
+  <si>
+    <t>Malithi Shamindi</t>
+  </si>
+  <si>
+    <t>Nethmi Himasha</t>
+  </si>
+  <si>
+    <t>Nayomi</t>
+  </si>
+  <si>
+    <t>Dulanjalee</t>
+  </si>
+  <si>
+    <t>TC 9092</t>
+  </si>
+  <si>
+    <t>Malithi Kavindya</t>
+  </si>
+  <si>
+    <t>EMP : NO</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>Tharushika</t>
+  </si>
+  <si>
+    <t>Malka</t>
+  </si>
+  <si>
+    <t>Sakila</t>
+  </si>
+  <si>
+    <t>Shamila</t>
+  </si>
+  <si>
+    <t>Melani</t>
+  </si>
+  <si>
+    <t>Chethani</t>
+  </si>
+  <si>
+    <t>Nilasha</t>
+  </si>
+  <si>
+    <t>Shalini</t>
+  </si>
+  <si>
+    <t>Ruwanthika</t>
+  </si>
+  <si>
+    <t>Malsha</t>
+  </si>
+  <si>
+    <t>Wasana</t>
+  </si>
+  <si>
+    <t>Amani</t>
+  </si>
+  <si>
+    <t>Kaveeshi</t>
+  </si>
+  <si>
+    <t>Sadusi</t>
+  </si>
+  <si>
+    <t>Randi</t>
+  </si>
+  <si>
+    <t>Shehani</t>
+  </si>
+  <si>
+    <t>Shanika</t>
+  </si>
+  <si>
+    <t>Yethmi</t>
+  </si>
+  <si>
+    <t>Hashani</t>
+  </si>
+  <si>
+    <t>Shardha</t>
+  </si>
+  <si>
+    <t>Dulakshi</t>
+  </si>
+  <si>
+    <t>Piumi</t>
+  </si>
+  <si>
+    <t>Mithuni</t>
+  </si>
+  <si>
+    <t>Nethra</t>
+  </si>
+  <si>
+    <t>Shalomi</t>
+  </si>
+  <si>
+    <t>Deshani</t>
+  </si>
+  <si>
+    <t>Dilki</t>
+  </si>
+  <si>
+    <t>Shanali</t>
+  </si>
+  <si>
+    <t>kaushika</t>
+  </si>
+  <si>
+    <t>Kawmini</t>
+  </si>
+  <si>
+    <t>Sanchana</t>
+  </si>
+  <si>
+    <t>Yomali</t>
+  </si>
+  <si>
+    <t>Ann</t>
+  </si>
+  <si>
+    <t>Vidushi</t>
+  </si>
+  <si>
+    <t>Sachini</t>
+  </si>
+  <si>
+    <t>Lakshika</t>
+  </si>
+  <si>
+    <t>Nethmi</t>
+  </si>
+  <si>
+    <t>Hiruni</t>
+  </si>
+  <si>
+    <t>Wanshi</t>
+  </si>
+  <si>
+    <t>Aruni</t>
+  </si>
+  <si>
+    <t>Sanduni</t>
+  </si>
+  <si>
+    <t>Navoda</t>
+  </si>
+  <si>
+    <t>Chathurani</t>
+  </si>
+  <si>
+    <t>Manori</t>
+  </si>
+  <si>
+    <t>Janani</t>
+  </si>
+  <si>
+    <t>Tinashi</t>
+  </si>
+  <si>
+    <t>Bhagya</t>
+  </si>
+  <si>
+    <t>Pemasha</t>
+  </si>
+  <si>
+    <t>Nimanshi</t>
+  </si>
+  <si>
+    <t>Keyara</t>
+  </si>
+  <si>
+    <t>Kaveesha</t>
+  </si>
+  <si>
+    <t>Nishani</t>
   </si>
 </sst>
 </file>
@@ -366,15 +687,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -382,52 +707,900 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>11769</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>35671</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>11099</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>22892</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>11491</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>20984</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>15449</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>12799</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>11268</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>17054</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>12541</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>34301</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>22115</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>34439</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>33991</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>31980</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>28242</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>27564</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>24600</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20257</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>22139</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>34953</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>28885</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>33760</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>28976</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>34746</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>29522</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>35045</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29426</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30676</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30703</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>35785</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32161</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34533</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34978</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>26202</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>26866</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>27588</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>35844</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>35049</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>33386</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>28887</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>34367</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>34659</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>35488</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>35123</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>33468</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>36214</v>
+      </c>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>36212</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>36163</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>36219</v>
+      </c>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>36117</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>36150</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>36156</v>
+      </c>
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>30512</v>
+      </c>
+      <c r="B59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>34952</v>
+      </c>
+      <c r="B60" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>24551</v>
+      </c>
+      <c r="B61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>30731</v>
+      </c>
+      <c r="B62" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>18562</v>
+      </c>
+      <c r="B63" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>28857</v>
+      </c>
+      <c r="B64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>34750</v>
+      </c>
+      <c r="B65" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>34753</v>
+      </c>
+      <c r="B66" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>33759</v>
+      </c>
+      <c r="B67" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>34298</v>
+      </c>
+      <c r="B68" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>35022</v>
+      </c>
+      <c r="B69" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>34648</v>
+      </c>
+      <c r="B70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>35005</v>
+      </c>
+      <c r="B71" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>28771</v>
+      </c>
+      <c r="B72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>34855</v>
+      </c>
+      <c r="B73" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>28886</v>
+      </c>
+      <c r="B74" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>34041</v>
+      </c>
+      <c r="B75" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>32916</v>
+      </c>
+      <c r="B76" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>34856</v>
+      </c>
+      <c r="B77" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>35568</v>
+      </c>
+      <c r="B78" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>23459</v>
+      </c>
+      <c r="B79" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>31735</v>
+      </c>
+      <c r="B80" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>28248</v>
+      </c>
+      <c r="B81" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>35566</v>
+      </c>
+      <c r="B82" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>35130</v>
+      </c>
+      <c r="B83" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>35866</v>
+      </c>
+      <c r="B84" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>35867</v>
+      </c>
+      <c r="B85" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>35865</v>
+      </c>
+      <c r="B86" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>34950</v>
+      </c>
+      <c r="B87" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>34748</v>
+      </c>
+      <c r="B88" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>34959</v>
+      </c>
+      <c r="B89" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>34935</v>
+      </c>
+      <c r="B90" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>34822</v>
+      </c>
+      <c r="B91" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>33267</v>
+      </c>
+      <c r="B92" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>34538</v>
+      </c>
+      <c r="B93" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>34761</v>
+      </c>
+      <c r="B94" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>34788</v>
+      </c>
+      <c r="B95" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>12112</v>
+      </c>
+      <c r="B96" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>27495</v>
+      </c>
+      <c r="B97" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>30851</v>
+      </c>
+      <c r="B98" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>34799</v>
+      </c>
+      <c r="B99" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>34063</v>
+      </c>
+      <c r="B100" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>13365</v>
+      </c>
+      <c r="B101" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>34048</v>
+      </c>
+      <c r="B102" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>30853</v>
+      </c>
+      <c r="B103" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>34299</v>
+      </c>
+      <c r="B104" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>28753</v>
+      </c>
+      <c r="B105" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>34891</v>
+      </c>
+      <c r="B106" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>30589</v>
+      </c>
+      <c r="B107" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>28340</v>
+      </c>
+      <c r="B108" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>35560</v>
+      </c>
+      <c r="B109" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>35676</v>
+      </c>
+      <c r="B110" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>35773</v>
+      </c>
+      <c r="B111" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>35772</v>
+      </c>
+      <c r="B112" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>35808</v>
+      </c>
+      <c r="B113" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
